--- a/input_data/Altitude_levels.xlsx
+++ b/input_data/Altitude_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5 sem\EE5206 Software Project\Project_files\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5 sem\EE5206 Software Project\Re_structured-Project\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D3978C-C363-4F83-8BCC-53FB2072B709}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBACDCA-2F8E-4F6F-81E5-98E3003B21C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{5FF6AA2D-4312-4DAF-ACB7-E6052E5B3368}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FF6AA2D-4312-4DAF-ACB7-E6052E5B3368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,28 +396,28 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
